--- a/biology/Médecine/Sorin_Biomedica/Sorin_Biomedica.xlsx
+++ b/biology/Médecine/Sorin_Biomedica/Sorin_Biomedica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sorin Group S.p.A. est une société italienne spécialisée dans le domaine médical, en particulier dans la production de dispositifs cardiaques pour le traitement des maladies cardiovasculaires ainsi que de dispositifs pour le traitement des maladies rénales.
@@ -515,11 +527,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sorin est l'acronyme de Società Ricerche Impianti Nucleari (Société pour la recherche sur les réacteurs nucléaires). L'entreprise a été fondée en 1956 par Fiat et Montedison, deux des plus importants groupes industriels italiens à cette époque, pour s'attaquer aux problèmes inhérents à la production d'énergie nucléaire.
 La société est cotée à la Borsa Italiana de Milan depuis le 5 janvier 2004, après sa sortie du groupe textile-chimique SNIA. Elle emploie de 4 800 salariés de haut niveau et son chiffre d'affaires dépasse 700 millions d'euros.
-En février 2015, Cyberonics et Sorin fusionnent leurs activités pour créer la société Livanova spécialisée dans la chirurgie cardiaque et la neurochirurgie, basée au Royaume-Uni, avec un chiffre d'affaires de 2,7 milliards de dollars et contrôlée à 54 % par les actionnaires de Cyberonics[2].
+En février 2015, Cyberonics et Sorin fusionnent leurs activités pour créer la société Livanova spécialisée dans la chirurgie cardiaque et la neurochirurgie, basée au Royaume-Uni, avec un chiffre d'affaires de 2,7 milliards de dollars et contrôlée à 54 % par les actionnaires de Cyberonics.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Composition du groupe Sorin avant la fusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sorin group Italia (Anciennement Dideco S.p.A), de Mirandola, crée et fabrique des oxygéneurs et des systèmes de circulation extracorporelles de sang dans les opérations à cœur ouvert.
 Cobe Cardiovascular, de Denver, fabrique des oxygéneurs pour les opérations chirurgicales et des machines cœur-poumons.
@@ -585,7 +601,9 @@
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Département cardiopulmonaire et transfusions :
 Sorin SpA fabrique et commercialise une très large gamme de produits et matériels bio-médicaux pour la circulation extracorporelle durant les interventions chirurgicales. Pour les transfusions sanguines, Sorin SpA produit des équipements fixes et autres matériels mono-usage pour la récupération du sang intra et postopératoire. Le groupe Sorin commercialise, en fonction du pays, sous les marques Dideco, Sorin, Stoeckert et Cobe.
@@ -596,7 +614,7 @@
 Sorin SpA fabrique et commercialise des valves cardiaques artificielles, mécaniques et biologiques, destinées au remplacement des valves naturelles détériorées. Le groupe Sorin SpA commercialise ses produits sous les marques Sorin et Carbomedics. La production du matériel Sorin est réalisée en Italie sur le site de Saluggia.
 La société Carbomedics Inc. a été rachetée en 2003. Elle fabrique les valves mécaniques sur le site d'Austin au Texas et les valves biologiques à Vancouver au Canada. Dans le secteur des valves mécaniques, Sorin SpA est leader en Europe avec plus de 50 % du marché, dans le secteur des valves biologiques, il est co-leader avec 40 % du marché mondial.
 Département angioplastie :
-Sorin SpA fabrique et commercialise des cathétères et des stents pour l'intervention sur les artères coronaires et périphériques. La production est réalisée sur le site de Saluggia[3].
+Sorin SpA fabrique et commercialise des cathétères et des stents pour l'intervention sur les artères coronaires et périphériques. La production est réalisée sur le site de Saluggia.
 Département traitement du rythme cardiaque :
 Sorin SpA fabrique des pacemakers à chambre simple et double, des électrodes, des programmateurs et défibrillateurs à chambre simple et double. Les pacemakers sont produits en Italie et commercialisés sous la marque Sorin et détient 15 % du marché, les défibrillateurs sont fabriqués en France et commercialisés sous la marque Ela Medical qui couvre 3 à 4 % du marché européen.
 Département traitement des maladies rénales :
